--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/67/correct_predictions_67.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/67/correct_predictions_67.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cannot shoot panorama</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
